--- a/spotmaze.xlsx
+++ b/spotmaze.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7200"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Website" sheetId="9" r:id="rId1"/>
     <sheet name="Developer Mode" sheetId="7" r:id="rId2"/>
-    <sheet name="Spots" sheetId="1" r:id="rId3"/>
-    <sheet name="Maze" sheetId="2" r:id="rId4"/>
+    <sheet name="Base Plate" sheetId="10" r:id="rId3"/>
+    <sheet name="Spots" sheetId="1" r:id="rId4"/>
+    <sheet name="Maze" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="128">
   <si>
     <t>Name</t>
   </si>
@@ -277,10 +278,6 @@
     <t>&lt;size=80%&gt;Applications</t>
   </si>
   <si>
-    <t>What is Spotmaze?&lt;size=60%&gt;
-(Press &lt;u&gt;Enter&lt;/u&gt; Here)</t>
-  </si>
-  <si>
     <t>[ [3,6] , [3,7] , [1,7] , [1,6] ]</t>
   </si>
   <si>
@@ -384,13 +381,34 @@
   </si>
   <si>
     <t>[3,6]</t>
+  </si>
+  <si>
+    <t>What is Spotmaze?&lt;size=60%&gt;\n\n(Press &lt;u&gt;Enter&lt;/u&gt; Here)</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Xmin</t>
+  </si>
+  <si>
+    <t>Xmax</t>
+  </si>
+  <si>
+    <t>Ymin</t>
+  </si>
+  <si>
+    <t>Ymax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,38 +436,64 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -458,7 +502,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -488,9 +532,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -503,19 +544,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -525,14 +556,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -548,6 +596,343 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.0251572327044023E-2"/>
+          <c:y val="0.10585547350953825"/>
+          <c:w val="0.90241280731846774"/>
+          <c:h val="0.80364130071979389"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Spots!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Spots!$E$2:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Spots!$F$2:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="142193024"/>
+        <c:axId val="142194944"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="142193024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="-10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>X</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.95874573997289791"/>
+              <c:y val="0.47621384118975069"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="142194944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="142194944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="-10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="142193024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -839,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,24 +1236,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="28" t="s">
         <v>84</v>
       </c>
     </row>
@@ -951,434 +1336,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="51.5703125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="12"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="21" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>-10</v>
+      </c>
+      <c r="B2" s="4">
+        <v>-10</v>
+      </c>
+      <c r="C2" s="4">
         <v>10</v>
       </c>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>55</v>
+      <c r="D2" s="4">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1388,10 +1379,579 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="63" style="17" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="9" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="11">
+        <v>0</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="11">
+        <v>2</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="11">
+        <v>3</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="14"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11">
+        <v>2</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
+        <v>3</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
+        <v>4</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11">
+        <v>5</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11">
+        <v>6</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="14"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="11">
+        <v>2</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="11">
+        <v>2</v>
+      </c>
+      <c r="F15" s="11">
+        <v>-2</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="11">
+        <v>2</v>
+      </c>
+      <c r="F16" s="11">
+        <v>-3</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="11">
+        <v>2</v>
+      </c>
+      <c r="F17" s="11">
+        <v>-4</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="11">
+        <v>2</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-5</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="11">
+        <v>2</v>
+      </c>
+      <c r="F19" s="11">
+        <v>-6</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="14"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="11">
+        <v>3</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="11">
+        <v>3</v>
+      </c>
+      <c r="F22" s="11">
+        <v>2</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="11">
+        <v>3</v>
+      </c>
+      <c r="F23" s="11">
+        <v>3</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="11">
+        <v>3</v>
+      </c>
+      <c r="F24" s="11">
+        <v>4</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="11">
+        <v>3</v>
+      </c>
+      <c r="F25" s="11">
+        <v>5</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="11">
+        <v>3</v>
+      </c>
+      <c r="F26" s="11">
+        <v>6</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,14 +1961,14 @@
     <col min="3" max="3" width="14.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1606,10 +2166,11 @@
         <v>28</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/spotmaze.xlsx
+++ b/spotmaze.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7200" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7200"/>
   </bookViews>
   <sheets>
     <sheet name="Website" sheetId="9" r:id="rId1"/>
@@ -263,9 +263,6 @@
     <t>https://www.spotmaze.com</t>
   </si>
   <si>
-    <t>My Website</t>
-  </si>
-  <si>
     <t>https://spotmaze.world/spotmaze</t>
   </si>
   <si>
@@ -402,6 +399,9 @@
   </si>
   <si>
     <t>Ymax</t>
+  </si>
+  <si>
+    <t>World</t>
   </si>
 </sst>
 </file>
@@ -613,7 +613,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -815,11 +814,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142193024"/>
-        <c:axId val="142194944"/>
+        <c:axId val="162378112"/>
+        <c:axId val="162380032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142193024"/>
+        <c:axId val="162378112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -863,13 +862,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142194944"/>
+        <c:crossAx val="162380032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142194944"/>
+        <c:axId val="162380032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -882,7 +881,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142193024"/>
+        <c:crossAx val="162378112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -1224,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,10 +1239,10 @@
         <v>72</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1251,10 +1250,10 @@
         <v>80</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1338,7 +1337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -1346,16 +1345,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1412,10 +1411,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>122</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>123</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>68</v>
@@ -1426,7 +1425,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>6</v>
@@ -1460,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1468,7 +1467,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>10</v>
@@ -1481,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1502,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1517,7 +1516,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>14</v>
@@ -1532,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1540,7 +1539,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>17</v>
@@ -1555,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1563,7 +1562,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>20</v>
@@ -1578,7 +1577,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1586,7 +1585,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>23</v>
@@ -1601,7 +1600,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1609,7 +1608,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>26</v>
@@ -1624,7 +1623,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1632,7 +1631,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>29</v>
@@ -1647,7 +1646,7 @@
         <v>6</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1662,7 +1661,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>32</v>
@@ -1677,7 +1676,7 @@
         <v>-1</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1685,7 +1684,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>35</v>
@@ -1700,7 +1699,7 @@
         <v>-2</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1708,7 +1707,7 @@
         <v>37</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>38</v>
@@ -1723,7 +1722,7 @@
         <v>-3</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1731,7 +1730,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>41</v>
@@ -1746,7 +1745,7 @@
         <v>-4</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1754,7 +1753,7 @@
         <v>43</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>44</v>
@@ -1769,7 +1768,7 @@
         <v>-5</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1777,7 +1776,7 @@
         <v>46</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>47</v>
@@ -1792,7 +1791,7 @@
         <v>-6</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1807,7 +1806,7 @@
         <v>49</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>50</v>
@@ -1822,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1845,7 +1844,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1868,7 +1867,7 @@
         <v>3</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1891,7 +1890,7 @@
         <v>4</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1914,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1937,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2166,7 +2165,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/spotmaze.xlsx
+++ b/spotmaze.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7200"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7200" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Website" sheetId="9" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Spots" sheetId="1" r:id="rId4"/>
     <sheet name="Maze" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="106">
   <si>
     <t>Name</t>
   </si>
@@ -227,9 +227,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>[0,0]</t>
-  </si>
-  <si>
     <t>End</t>
   </si>
   <si>
@@ -275,9 +272,6 @@
     <t>&lt;size=80%&gt;Applications</t>
   </si>
   <si>
-    <t>[ [3,6] , [3,7] , [1,7] , [1,6] ]</t>
-  </si>
-  <si>
     <t>&lt;size=70%&gt;Build Worlds&lt;/size&gt;\n\n\n\n\n</t>
   </si>
   <si>
@@ -317,69 +311,6 @@
     <t>&lt;size=70%&gt;Community&lt;/size&gt;\n\n\n\n\n</t>
   </si>
   <si>
-    <t>[1,0]</t>
-  </si>
-  <si>
-    <t>[2,0]</t>
-  </si>
-  <si>
-    <t>[3,0]</t>
-  </si>
-  <si>
-    <t>[1,1]</t>
-  </si>
-  <si>
-    <t>[1,2]</t>
-  </si>
-  <si>
-    <t>[1,3]</t>
-  </si>
-  <si>
-    <t>[1,4]</t>
-  </si>
-  <si>
-    <t>[1,5]</t>
-  </si>
-  <si>
-    <t>[1,6]</t>
-  </si>
-  <si>
-    <t>[2,-1]</t>
-  </si>
-  <si>
-    <t>[2,-2]</t>
-  </si>
-  <si>
-    <t>[2,-3]</t>
-  </si>
-  <si>
-    <t>[2,-4]</t>
-  </si>
-  <si>
-    <t>[2,-5]</t>
-  </si>
-  <si>
-    <t>[2,-6]</t>
-  </si>
-  <si>
-    <t>[3,1]</t>
-  </si>
-  <si>
-    <t>[3,2]</t>
-  </si>
-  <si>
-    <t>[3,3]</t>
-  </si>
-  <si>
-    <t>[3,4]</t>
-  </si>
-  <si>
-    <t>[3,5]</t>
-  </si>
-  <si>
-    <t>[3,6]</t>
-  </si>
-  <si>
     <t>What is Spotmaze?&lt;size=60%&gt;\n\n(Press &lt;u&gt;Enter&lt;/u&gt; Here)</t>
   </si>
   <si>
@@ -402,6 +333,9 @@
   </si>
   <si>
     <t>World</t>
+  </si>
+  <si>
+    <t>[[3,6] , [3,7] , [1,7] , [1,6]]</t>
   </si>
 </sst>
 </file>
@@ -502,7 +436,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -516,9 +450,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -531,7 +462,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -568,8 +498,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -580,6 +508,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -613,6 +550,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -814,11 +752,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="162378112"/>
-        <c:axId val="162380032"/>
+        <c:axId val="158642560"/>
+        <c:axId val="158644480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="162378112"/>
+        <c:axId val="158642560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -862,13 +800,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162380032"/>
+        <c:crossAx val="158644480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162380032"/>
+        <c:axId val="158644480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -881,7 +819,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162378112"/>
+        <c:crossAx val="158642560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -904,15 +842,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
+      <xdr:colOff>504824</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1223,37 +1161,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="42" style="9" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="42" style="8" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1276,57 +1214,57 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="8" style="8" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8" style="7" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" style="7" customWidth="1"/>
     <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>75</v>
+      <c r="A1" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>76</v>
+      <c r="A2" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="6">
+        <v>77</v>
+      </c>
+      <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
+      <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
+      <c r="B9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1345,16 +1283,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1380,563 +1318,593 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="63" style="17" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="9" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="13.5703125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="63" style="15" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" s="22" t="s">
+      <c r="E1" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="11">
+      <c r="D2" s="12"/>
+      <c r="E2" s="9">
         <v>0</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="9">
         <v>0</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>69</v>
+      <c r="G2" s="9" t="str">
+        <f>IF(A2&lt;&gt;"","["&amp;E2&amp;","&amp;F2&amp;"]","")</f>
+        <v>[0,0]</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="11">
+      <c r="D3" s="12"/>
+      <c r="E3" s="9">
         <v>1</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <v>0</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>99</v>
+      <c r="G3" s="9" t="str">
+        <f>IF(A3&lt;&gt;"","["&amp;E3&amp;","&amp;F3&amp;"]","")</f>
+        <v>[1,0]</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="9">
+        <v>2</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" t="str">
+        <f>IF(A4&lt;&gt;"","["&amp;E4&amp;","&amp;F4&amp;"]","")</f>
+        <v>[2,0]</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="9">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="str">
+        <f>IF(A5&lt;&gt;"","["&amp;E5&amp;","&amp;F5&amp;"]","")</f>
+        <v>[3,0]</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="12"/>
+      <c r="G6" s="9" t="str">
+        <f>IF(A6&lt;&gt;"","["&amp;E6&amp;","&amp;F6&amp;"]","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="11">
+      <c r="C7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9" t="str">
+        <f>IF(A7&lt;&gt;"","["&amp;E7&amp;","&amp;F7&amp;"]","")</f>
+        <v>[1,1]</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
         <v>2</v>
       </c>
-      <c r="F4" s="11">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="11">
+      <c r="G8" s="9" t="str">
+        <f>IF(A8&lt;&gt;"","["&amp;E8&amp;","&amp;F8&amp;"]","")</f>
+        <v>[1,2]</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
         <v>3</v>
       </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="14"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="G9" s="9" t="str">
+        <f>IF(A9&lt;&gt;"","["&amp;E9&amp;","&amp;F9&amp;"]","")</f>
+        <v>[1,3]</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="9">
         <v>1</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F10" s="9">
+        <v>4</v>
+      </c>
+      <c r="G10" s="9" t="str">
+        <f>IF(A10&lt;&gt;"","["&amp;E10&amp;","&amp;F10&amp;"]","")</f>
+        <v>[1,4]</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="9">
         <v>1</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="F11" s="9">
+        <v>5</v>
+      </c>
+      <c r="G11" s="9" t="str">
+        <f>IF(A11&lt;&gt;"","["&amp;E11&amp;","&amp;F11&amp;"]","")</f>
+        <v>[1,5]</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="9">
         <v>1</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F12" s="9">
+        <v>6</v>
+      </c>
+      <c r="G12" s="9" t="str">
+        <f>IF(A12&lt;&gt;"","["&amp;E12&amp;","&amp;F12&amp;"]","")</f>
+        <v>[1,6]</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="12"/>
+      <c r="G13" s="9" t="str">
+        <f>IF(A13&lt;&gt;"","["&amp;E13&amp;","&amp;F13&amp;"]","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="9">
         <v>2</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="F14" s="9">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="9" t="str">
+        <f>IF(A14&lt;&gt;"","["&amp;E14&amp;","&amp;F14&amp;"]","")</f>
+        <v>[2,-1]</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2</v>
+      </c>
+      <c r="F15" s="9">
+        <v>-2</v>
+      </c>
+      <c r="G15" s="9" t="str">
+        <f>IF(A15&lt;&gt;"","["&amp;E15&amp;","&amp;F15&amp;"]","")</f>
+        <v>[2,-2]</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-3</v>
+      </c>
+      <c r="G16" s="9" t="str">
+        <f>IF(A16&lt;&gt;"","["&amp;E16&amp;","&amp;F16&amp;"]","")</f>
+        <v>[2,-3]</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2</v>
+      </c>
+      <c r="F17" s="9">
+        <v>-4</v>
+      </c>
+      <c r="G17" s="9" t="str">
+        <f>IF(A17&lt;&gt;"","["&amp;E17&amp;","&amp;F17&amp;"]","")</f>
+        <v>[2,-4]</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2</v>
+      </c>
+      <c r="F18" s="9">
+        <v>-5</v>
+      </c>
+      <c r="G18" s="9" t="str">
+        <f>IF(A18&lt;&gt;"","["&amp;E18&amp;","&amp;F18&amp;"]","")</f>
+        <v>[2,-5]</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="9">
+        <v>2</v>
+      </c>
+      <c r="F19" s="9">
+        <v>-6</v>
+      </c>
+      <c r="G19" s="9" t="str">
+        <f>IF(A19&lt;&gt;"","["&amp;E19&amp;","&amp;F19&amp;"]","")</f>
+        <v>[2,-6]</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="12"/>
+      <c r="G20" s="9" t="str">
+        <f>IF(A20&lt;&gt;"","["&amp;E20&amp;","&amp;F20&amp;"]","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="9">
+        <v>3</v>
+      </c>
+      <c r="F21" s="9">
         <v>1</v>
       </c>
-      <c r="F9" s="11">
+      <c r="G21" s="9" t="str">
+        <f>IF(A21&lt;&gt;"","["&amp;E21&amp;","&amp;F21&amp;"]","")</f>
+        <v>[3,1]</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="9">
         <v>3</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="11">
-        <v>1</v>
-      </c>
-      <c r="F10" s="11">
+      <c r="F22" s="9">
+        <v>2</v>
+      </c>
+      <c r="G22" s="9" t="str">
+        <f>IF(A22&lt;&gt;"","["&amp;E22&amp;","&amp;F22&amp;"]","")</f>
+        <v>[3,2]</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="9">
+        <v>3</v>
+      </c>
+      <c r="F23" s="9">
+        <v>3</v>
+      </c>
+      <c r="G23" s="9" t="str">
+        <f>IF(A23&lt;&gt;"","["&amp;E23&amp;","&amp;F23&amp;"]","")</f>
+        <v>[3,3]</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="9">
+        <v>3</v>
+      </c>
+      <c r="F24" s="9">
         <v>4</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="11">
+      <c r="G24" s="9" t="str">
+        <f>IF(A24&lt;&gt;"","["&amp;E24&amp;","&amp;F24&amp;"]","")</f>
+        <v>[3,4]</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="9">
+        <v>3</v>
+      </c>
+      <c r="F25" s="9">
         <v>5</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="11">
-        <v>1</v>
-      </c>
-      <c r="F12" s="11">
+      <c r="G25" s="9" t="str">
+        <f>IF(A25&lt;&gt;"","["&amp;E25&amp;","&amp;F25&amp;"]","")</f>
+        <v>[3,5]</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="9">
+        <v>3</v>
+      </c>
+      <c r="F26" s="9">
         <v>6</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="14"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="11">
-        <v>2</v>
-      </c>
-      <c r="F14" s="11">
-        <v>-1</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="11">
-        <v>2</v>
-      </c>
-      <c r="F15" s="11">
-        <v>-2</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="11">
-        <v>2</v>
-      </c>
-      <c r="F16" s="11">
-        <v>-3</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="11">
-        <v>2</v>
-      </c>
-      <c r="F17" s="11">
-        <v>-4</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="11">
-        <v>2</v>
-      </c>
-      <c r="F18" s="11">
-        <v>-5</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="11">
-        <v>2</v>
-      </c>
-      <c r="F19" s="11">
-        <v>-6</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="14"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="11">
-        <v>3</v>
-      </c>
-      <c r="F21" s="11">
-        <v>1</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="11">
-        <v>3</v>
-      </c>
-      <c r="F22" s="11">
-        <v>2</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="11">
-        <v>3</v>
-      </c>
-      <c r="F23" s="11">
-        <v>3</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="11">
-        <v>3</v>
-      </c>
-      <c r="F24" s="11">
-        <v>4</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="11">
-        <v>3</v>
-      </c>
-      <c r="F25" s="11">
-        <v>5</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="11">
-        <v>3</v>
-      </c>
-      <c r="F26" s="11">
-        <v>6</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>119</v>
+      <c r="G26" s="9" t="str">
+        <f>IF(A26&lt;&gt;"","["&amp;E26&amp;","&amp;F26&amp;"]","")</f>
+        <v>[3,6]</v>
       </c>
     </row>
   </sheetData>
@@ -1950,222 +1918,222 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="27" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="27" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="27" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="27" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="27" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="27" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="27" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="27" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="27" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="27" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="27" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>85</v>
+      <c r="C26" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
